--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\Movie-Search-System-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{D48A64C5-FB85-4A26-A412-2B82CEB207E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93AC86E-A38F-494B-887F-0825D2548F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{F76CCB44-B974-4640-A03A-7EB3931FDBE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>text</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,33 +64,418 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组类型（Array datatype）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地理坐标类型（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Geo-point datatype</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv4 类型（IPv4 datatype）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mapper-murmur3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled使用的前提是type是object</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该类型被用来索引长文本，在创建索引前会将这些文本进行分词，转化为词的组合，建立索引；允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>es</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来检索这些词，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型不能用来排序和聚合</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该类型不需要进行分词，可以被用来检索过滤、排序和聚合，keyword类型自读那只能用本身来进行检索（不可用text分词后的模糊检索）。</t>
+  </si>
+  <si>
+    <t>[“one”，“two”]</t>
+  </si>
+  <si>
+    <t>[{“name”: “Mary”, “age”: 12}, {“name”: “John”, “age”: 10}]</t>
+  </si>
+  <si>
+    <t>字符型数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组型数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>geo_shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 用于类似于多边形的复杂形状</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>geo_point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于经纬度坐标</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 用于IPv4 地址</t>
+    </r>
+  </si>
+  <si>
+    <t>采用mapper-attachments插件，可支持_attachments_索引，例如 Microsoft office 格式，Open Documnet 格式， ePub，HTML等</t>
+  </si>
+  <si>
     <t>日期型</t>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二进制型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组类型（Array datatype）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, [2, 3]] 等价于 [1, 2, 3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>嵌套类型（Nested datatype）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理形状类型（Geo-Shape datatype）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completion 类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>completion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 提供自动补全建议</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过插件，可以通过_murmur3_来计算index的哈希值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled：仅存储、不做搜索和聚合分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"enabled":true （缺省）| false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapping 支持属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index：是否构建倒排索引（即是否分词，设置false，字段将不会被索引）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token count </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>token_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于统计做子标记的字段的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数目，该值会一直增加，不会因为过滤条件而减少</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加类型（Attachment datatype）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -102,7 +487,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>地理坐标类型（</t>
+      <t>对象类型（</t>
     </r>
     <r>
       <rPr>
@@ -112,7 +497,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Geo-point datatype</t>
+      <t>Object datatype</t>
     </r>
     <r>
       <rPr>
@@ -128,44 +513,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地理形状类型（Geo-Shape datatype）</t>
-  </si>
-  <si>
-    <t>IPv4 类型（IPv4 datatype）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completion 类型</t>
-  </si>
-  <si>
-    <t>Token count </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mapper-murmur3 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF4F4F4F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加类型（Attachment datatype）</t>
+    <t>"index": true（缺省）| false</t>
+  </si>
+  <si>
+    <t>index_option：存储倒排索引的哪些信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个可选参数 docs：索引文档号 freqs：文档号+词频 positions：文档号+词频+位置，通常用来距离查询 offsets：文档号+词频+位置+偏移量，通常被使用在高亮字段
+分词字段默认时positions，其他默认时docs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,10 +567,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF4F4F4F"/>
-      <name val="Arial"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -233,20 +641,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,143 +983,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F6B4FD-C6F4-4F80-8A4D-9883846012AE}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
